--- a/doc/数据库信息.xlsx
+++ b/doc/数据库信息.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="23040" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -215,10 +215,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -241,46 +241,23 @@
       <charset val="134"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -294,39 +271,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -347,9 +293,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -357,14 +333,31 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -379,7 +372,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -412,187 +412,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -621,6 +621,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -636,46 +656,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -704,17 +695,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -726,10 +726,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -738,19 +738,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -759,112 +759,112 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -955,16 +955,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>181610</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>56515</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -973,8 +973,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10972800" y="19050"/>
-          <a:ext cx="7049135" cy="4676775"/>
+          <a:off x="9885045" y="19050"/>
+          <a:ext cx="6353810" cy="5340985"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1005,9 +1005,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-          <a:noAutofit/>
-        </a:bodyPr>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
@@ -1212,7 +1210,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>) ENGINE=InnoDB DEFAULT CHARSET=utf8;</a:t>
+            <a:t>) ENGINE=InnoDB DEFAULT CHARSET=utf8 COMMENT='人员信息表';</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
@@ -1240,8 +1238,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="38100" y="4886325"/>
-          <a:ext cx="9505950" cy="895350"/>
+          <a:off x="38100" y="4975860"/>
+          <a:ext cx="8612505" cy="952500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1610,15 +1608,15 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J36" sqref="J36"/>
+      <selection activeCell="A2" sqref="A2:G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="17.5" customWidth="1"/>
-    <col min="2" max="2" width="10.125" customWidth="1"/>
-    <col min="6" max="6" width="19.125" customWidth="1"/>
-    <col min="7" max="7" width="52.375" customWidth="1"/>
+    <col min="2" max="2" width="10.1296296296296" customWidth="1"/>
+    <col min="6" max="6" width="19.1296296296296" customWidth="1"/>
+    <col min="7" max="7" width="52.3796296296296" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1666,7 +1664,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" ht="14.25" spans="1:7">
+    <row r="4" spans="1:7">
       <c r="A4" s="4" t="s">
         <v>9</v>
       </c>
@@ -1687,7 +1685,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" ht="14.25" spans="1:7">
+    <row r="5" spans="1:7">
       <c r="A5" s="4" t="s">
         <v>13</v>
       </c>
@@ -1706,7 +1704,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" ht="14.25" spans="1:7">
+    <row r="6" spans="1:7">
       <c r="A6" s="4" t="s">
         <v>15</v>
       </c>
@@ -1725,7 +1723,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" ht="14.25" spans="1:7">
+    <row r="7" spans="1:7">
       <c r="A7" s="4" t="s">
         <v>18</v>
       </c>
@@ -1742,7 +1740,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" ht="14.25" spans="1:7">
+    <row r="8" spans="1:7">
       <c r="A8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1759,7 +1757,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" ht="14.25" spans="1:7">
+    <row r="9" spans="1:7">
       <c r="A9" s="4" t="s">
         <v>23</v>
       </c>
@@ -1776,7 +1774,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" ht="14.25" spans="1:7">
+    <row r="10" spans="1:7">
       <c r="A10" s="4" t="s">
         <v>25</v>
       </c>
@@ -1793,7 +1791,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" ht="14.25" spans="1:7">
+    <row r="11" spans="1:7">
       <c r="A11" s="4" t="s">
         <v>27</v>
       </c>
@@ -1810,7 +1808,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" ht="14.25" spans="1:7">
+    <row r="12" spans="1:7">
       <c r="A12" s="4" t="s">
         <v>29</v>
       </c>
@@ -1827,7 +1825,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" ht="14.25" spans="1:7">
+    <row r="13" spans="1:7">
       <c r="A13" s="4" t="s">
         <v>31</v>
       </c>
@@ -1844,7 +1842,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" ht="14.25" spans="1:7">
+    <row r="14" spans="1:7">
       <c r="A14" s="4" t="s">
         <v>34</v>
       </c>
@@ -1861,7 +1859,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" ht="14.25" spans="1:7">
+    <row r="15" spans="1:7">
       <c r="A15" s="4" t="s">
         <v>36</v>
       </c>
@@ -1878,7 +1876,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" ht="14.25" spans="1:7">
+    <row r="16" spans="1:7">
       <c r="A16" s="4" t="s">
         <v>38</v>
       </c>
@@ -1895,7 +1893,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" ht="14.25" spans="1:7">
+    <row r="17" spans="1:7">
       <c r="A17" s="4" t="s">
         <v>40</v>
       </c>
@@ -1912,7 +1910,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" ht="14.25" spans="1:7">
+    <row r="18" spans="1:7">
       <c r="A18" s="4" t="s">
         <v>42</v>
       </c>
@@ -1929,7 +1927,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" ht="14.25" spans="1:7">
+    <row r="19" spans="1:7">
       <c r="A19" s="4" t="s">
         <v>44</v>
       </c>
@@ -1948,7 +1946,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="20" ht="14.25" spans="1:7">
+    <row r="20" spans="1:7">
       <c r="A20" s="4" t="s">
         <v>48</v>
       </c>
@@ -1965,7 +1963,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" ht="14.25" spans="1:7">
+    <row r="21" spans="1:7">
       <c r="A21" s="4" t="s">
         <v>50</v>
       </c>
@@ -1982,7 +1980,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" ht="14.25" spans="1:7">
+    <row r="22" spans="1:7">
       <c r="A22" s="4" t="s">
         <v>52</v>
       </c>
@@ -1999,7 +1997,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="23" ht="14.25" spans="1:7">
+    <row r="23" spans="1:7">
       <c r="A23" s="4" t="s">
         <v>54</v>
       </c>
@@ -2018,7 +2016,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="24" ht="14.25" spans="1:7">
+    <row r="24" spans="1:7">
       <c r="A24" s="4" t="s">
         <v>57</v>
       </c>
@@ -2035,7 +2033,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="25" ht="14.25" spans="1:7">
+    <row r="25" spans="1:7">
       <c r="A25" s="4" t="s">
         <v>59</v>
       </c>
@@ -2052,7 +2050,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="26" ht="14.25" spans="1:7">
+    <row r="26" spans="1:7">
       <c r="A26" s="4" t="s">
         <v>61</v>
       </c>
@@ -2090,7 +2088,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2107,7 +2105,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/doc/数据库信息.xlsx
+++ b/doc/数据库信息.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="66">
   <si>
     <t>表名：people</t>
   </si>
@@ -70,6 +70,12 @@
   </si>
   <si>
     <t>性别（0：男，1：女，3：跨性别者）</t>
+  </si>
+  <si>
+    <t>tel</t>
+  </si>
+  <si>
+    <t>手机号码</t>
   </si>
   <si>
     <t>birthday</t>
@@ -216,8 +222,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -241,16 +247,37 @@
       <charset val="134"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -263,16 +290,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -287,7 +329,39 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -301,57 +375,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -362,28 +390,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -412,19 +418,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -436,163 +586,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -617,17 +623,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -656,6 +651,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -671,6 +675,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -682,15 +697,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -726,10 +732,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -738,133 +744,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -963,7 +969,7 @@
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>181610</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>56515</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -973,8 +979,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9885045" y="19050"/>
-          <a:ext cx="6353810" cy="5340985"/>
+          <a:off x="10984230" y="19050"/>
+          <a:ext cx="7039610" cy="5409565"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1222,13 +1228,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>3924300</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -1238,8 +1244,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="38100" y="4975860"/>
-          <a:ext cx="8612505" cy="952500"/>
+          <a:off x="38100" y="5067300"/>
+          <a:ext cx="9507220" cy="895350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1605,18 +1611,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G2"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="17.5" customWidth="1"/>
-    <col min="2" max="2" width="10.1296296296296" customWidth="1"/>
-    <col min="6" max="6" width="19.1296296296296" customWidth="1"/>
-    <col min="7" max="7" width="52.3796296296296" customWidth="1"/>
+    <col min="2" max="2" width="10.1333333333333" customWidth="1"/>
+    <col min="6" max="6" width="19.1333333333333" customWidth="1"/>
+    <col min="7" max="7" width="52.3833333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1664,7 +1670,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" ht="14.25" spans="1:7">
       <c r="A4" s="4" t="s">
         <v>9</v>
       </c>
@@ -1685,7 +1691,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" ht="14.25" spans="1:7">
       <c r="A5" s="4" t="s">
         <v>13</v>
       </c>
@@ -1704,7 +1710,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" ht="14.25" spans="1:7">
       <c r="A6" s="4" t="s">
         <v>15</v>
       </c>
@@ -1723,41 +1729,41 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" ht="14.25" spans="1:7">
       <c r="A7" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="5">
+        <v>15</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="5">
+    </row>
+    <row r="8" ht="14.25" spans="1:7">
+      <c r="A8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="5">
         <v>0</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="5">
-        <v>10</v>
-      </c>
       <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
       <c r="G8" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" ht="14.25" spans="1:7">
       <c r="A9" s="4" t="s">
         <v>23</v>
       </c>
@@ -1768,13 +1774,13 @@
         <v>10</v>
       </c>
       <c r="D9" s="6"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
       <c r="G9" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" ht="14.25" spans="1:7">
       <c r="A10" s="4" t="s">
         <v>25</v>
       </c>
@@ -1785,13 +1791,13 @@
         <v>10</v>
       </c>
       <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
       <c r="G10" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" ht="14.25" spans="1:7">
       <c r="A11" s="4" t="s">
         <v>27</v>
       </c>
@@ -1799,16 +1805,16 @@
         <v>10</v>
       </c>
       <c r="C11" s="5">
-        <v>255</v>
+        <v>10</v>
       </c>
       <c r="D11" s="6"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
       <c r="G11" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" ht="14.25" spans="1:7">
       <c r="A12" s="4" t="s">
         <v>29</v>
       </c>
@@ -1819,47 +1825,47 @@
         <v>255</v>
       </c>
       <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
       <c r="G12" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" ht="14.25" spans="1:7">
       <c r="A13" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="5">
+        <v>255</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="5">
+    </row>
+    <row r="14" ht="14.25" spans="1:7">
+      <c r="A14" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="5">
         <v>0</v>
       </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="5">
-        <v>255</v>
-      </c>
       <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
       <c r="G14" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" ht="14.25" spans="1:7">
       <c r="A15" s="4" t="s">
         <v>36</v>
       </c>
@@ -1870,47 +1876,47 @@
         <v>255</v>
       </c>
       <c r="D15" s="6"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
       <c r="G15" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" ht="14.25" spans="1:7">
       <c r="A16" s="4" t="s">
         <v>38</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C16" s="5">
-        <v>1</v>
+        <v>255</v>
       </c>
       <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
       <c r="G16" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" ht="14.25" spans="1:7">
       <c r="A17" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C17" s="5">
-        <v>64</v>
+        <v>1</v>
       </c>
       <c r="D17" s="6"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
       <c r="G17" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" ht="14.25" spans="1:7">
       <c r="A18" s="4" t="s">
         <v>42</v>
       </c>
@@ -1921,49 +1927,49 @@
         <v>64</v>
       </c>
       <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
       <c r="G18" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" ht="14.25" spans="1:7">
       <c r="A19" s="4" t="s">
         <v>44</v>
       </c>
       <c r="B19" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="5">
+        <v>64</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="5">
+    </row>
+    <row r="20" ht="14.25" spans="1:7">
+      <c r="A20" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="5">
         <v>0</v>
       </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="4" t="s">
+      <c r="D20" s="6"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="5">
-        <v>64</v>
-      </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
       <c r="G20" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" ht="14.25" spans="1:7">
       <c r="A21" s="4" t="s">
         <v>50</v>
       </c>
@@ -1974,66 +1980,66 @@
         <v>64</v>
       </c>
       <c r="D21" s="6"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
       <c r="G21" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" ht="14.25" spans="1:7">
       <c r="A22" s="4" t="s">
         <v>52</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="C22" s="5">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
       <c r="G22" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" ht="14.25" spans="1:7">
       <c r="A23" s="4" t="s">
         <v>54</v>
       </c>
       <c r="B23" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="5">
+        <v>0</v>
+      </c>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" ht="14.25" spans="1:7">
+      <c r="A24" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C24" s="5">
         <v>1</v>
       </c>
-      <c r="D23" s="6"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="4" t="s">
+      <c r="D24" s="6"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="5">
-        <v>64</v>
-      </c>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
       <c r="G24" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" ht="14.25" spans="1:7">
       <c r="A25" s="4" t="s">
         <v>59</v>
       </c>
@@ -2044,27 +2050,44 @@
         <v>64</v>
       </c>
       <c r="D25" s="6"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
       <c r="G25" s="4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" ht="14.25" spans="1:7">
       <c r="A26" s="4" t="s">
         <v>61</v>
       </c>
       <c r="B26" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="5">
+        <v>64</v>
+      </c>
+      <c r="D26" s="6"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="5">
+    </row>
+    <row r="27" ht="14.25" spans="1:7">
+      <c r="A27" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27" s="5">
         <v>0</v>
       </c>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="4" t="s">
-        <v>63</v>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="4" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -2088,7 +2111,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2105,7 +2128,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
